--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -40,27 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,100 +67,103 @@
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>save</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>better</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7222222222222222</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8955613577023499</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5925925925925926</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8928571428571429</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L8">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="M8">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5387596899224806</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8787878787878788</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4406779661016949</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8773584905660378</v>
+        <v>0.875</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2818791946308725</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8723404255319149</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8625</v>
+        <v>0.86875</v>
       </c>
       <c r="L13">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,13 +1116,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1142,13 +1142,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1168,13 +1168,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8591549295774648</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1194,13 +1194,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1220,13 +1220,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8515625</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1246,13 +1246,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1272,13 +1272,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1298,13 +1298,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1324,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7428571428571429</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1350,13 +1350,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7382352941176471</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1376,13 +1376,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7301587301587301</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1402,13 +1402,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1428,13 +1428,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7078651685393258</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L26">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="M26">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1454,13 +1454,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7071129707112971</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L27">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="M27">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1480,13 +1480,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6915254237288135</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L28">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1506,13 +1506,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6914893617021277</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1532,13 +1532,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6274509803921569</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1558,13 +1558,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6153846153846154</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1584,25 +1584,25 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L32">
+        <v>37</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>36</v>
-      </c>
-      <c r="M32">
-        <v>36</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1610,13 +1610,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3835616438356164</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
